--- a/Arizona/Regulatory/AZre_Regulatory Schema Mapping to WaDE.xlsx
+++ b/Arizona/Regulatory/AZre_Regulatory Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Arizona\Regulatory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84C515E-90EA-440C-8908-7EBB930242A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0DA5AD-9E7C-4089-91C2-56742BDD65DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="645" firstSheet="1" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="180">
   <si>
     <t>Item</t>
   </si>
@@ -189,7 +189,7 @@
     <t>OrganizationContactEmail</t>
   </si>
   <si>
-    <t>earp@azwater.gov</t>
+    <t>nlmast@azwater.gov</t>
   </si>
   <si>
     <t>craigmiller@utah.gov</t>
@@ -201,10 +201,25 @@
     <t>OrganizationContactName</t>
   </si>
   <si>
+    <t>Natalie Mast</t>
+  </si>
+  <si>
     <t>Craig Miller</t>
   </si>
   <si>
     <t>Name of the contact person for the organization.</t>
+  </si>
+  <si>
+    <t>OrganizationDataMappingURL</t>
+  </si>
+  <si>
+    <t>https://github.com/WSWCWaterDataExchange/MappingStatesDataToWaDE2.0/tree/master/Arizona</t>
+  </si>
+  <si>
+    <t>https://github.com/WSWCWaterDataExchange/WaDE2.0</t>
+  </si>
+  <si>
+    <t>A URL to WaDE GitHub repository page for the provided data.</t>
   </si>
   <si>
     <t>OrganizationName</t>
@@ -219,7 +234,7 @@
     <t>OrganizationPhoneNumber</t>
   </si>
   <si>
-    <t>(602) 771-8585</t>
+    <t>602-771-4646</t>
   </si>
   <si>
     <t>801-538-7280</t>
@@ -357,6 +372,9 @@
     <t>The high level description of the reporting area type recognized by the data provider (e.g., HUC, County, Basin, etc.).</t>
   </si>
   <si>
+    <t>Irrigation Non-Expansion Areas</t>
+  </si>
+  <si>
     <t>ReportingUnitUpdateDate</t>
   </si>
   <si>
@@ -462,6 +480,12 @@
     <t>StatutoryEffectiveDate</t>
   </si>
   <si>
+    <t>Created and added to AMA_and_INA2.shp</t>
+  </si>
+  <si>
+    <t>Effective Date</t>
+  </si>
+  <si>
     <t>The start date of the legal statute(s) began.  Format of MM/DD/YYYY.</t>
   </si>
   <si>
@@ -478,6 +502,9 @@
   </si>
   <si>
     <t>The high level description of the regulatory overlaytype recognized by the data provider.</t>
+  </si>
+  <si>
+    <t>Irrigation Non-Expansion Area</t>
   </si>
   <si>
     <t>WaterSourceTypeCV</t>
@@ -528,9 +555,6 @@
     <t>AMA</t>
   </si>
   <si>
-    <t>Effective Date</t>
-  </si>
-  <si>
     <t>Douglas AMA</t>
   </si>
   <si>
@@ -560,9 +584,6 @@
   <si>
     <t>https://www.amwua.org/blog/the-1980-groundwater-management-act-a-monumental-piece-of-legislation-that-is-still-relevant-40-years-later, https://www.azleg.gov/viewdocument/?docName=https://www.azleg.gov/ars/45/00411-03.htm, https://new.azwater.gov/ama/douglas-ama, https://new.azwater.gov/ama/harquahala-ina, https://www.azleg.gov/viewdocument/?docName=https://www.azleg.gov/ars/45/00431.htm</t>
   </si>
-  <si>
-    <t>Use custom list: ["7/1/1994", "6/12/1980", "1/1/1981", "12/16/1974", "6/12/1980", "6/12/1980", "12/1/2022", "6/12/1980"]</t>
-  </si>
 </sst>
 </file>
 
@@ -571,7 +592,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -730,14 +751,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -906,7 +919,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1122,6 +1135,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1255,6 +1271,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1263,15 +1282,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1650,53 +1660,53 @@
       <c r="A5" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="120" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="70"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="71"/>
-      <c r="B6" s="119"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="70"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="71"/>
-      <c r="B7" s="119"/>
+      <c r="B7" s="120"/>
       <c r="C7" s="70"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="119"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="70"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="72"/>
-      <c r="B9" s="119"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="70"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="72"/>
-      <c r="B10" s="119"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="70"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="72"/>
-      <c r="B11" s="119"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="70"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="72"/>
-      <c r="B12" s="119"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="70"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="119"/>
+      <c r="B13" s="120"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1734,19 +1744,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="80" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -1789,7 +1799,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
-      <c r="K2" s="81" t="s">
+      <c r="K2" s="82" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1858,7 +1868,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="F7" s="77" t="s">
+      <c r="F7" s="78" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1897,11 +1907,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F7812-755D-4EFC-B094-8BF895453DC0}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1911,7 +1921,7 @@
     <col min="3" max="3" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.109375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.109375" style="1" bestFit="1" customWidth="1"/>
@@ -2006,7 +2016,7 @@
       <c r="E3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="123" t="s">
+      <c r="F3" s="75" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="24" t="s">
@@ -2015,10 +2025,10 @@
       <c r="H3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="77" t="s">
         <v>45</v>
       </c>
       <c r="K3" s="74" t="s">
@@ -2041,7 +2051,7 @@
       <c r="E4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="124" t="s">
+      <c r="F4" s="121" t="s">
         <v>48</v>
       </c>
       <c r="G4" s="31" t="s">
@@ -2050,10 +2060,10 @@
       <c r="H4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="75" t="s">
+      <c r="I4" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="76" t="s">
+      <c r="J4" s="77" t="s">
         <v>49</v>
       </c>
       <c r="K4" s="74" t="s">
@@ -2076,26 +2086,28 @@
       <c r="E5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="125"/>
+      <c r="F5" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="G5" s="31" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="76" t="s">
-        <v>52</v>
+      <c r="J5" s="77" t="s">
+        <v>53</v>
       </c>
       <c r="K5" s="74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>43</v>
@@ -2109,8 +2121,8 @@
       <c r="E6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="125" t="s">
-        <v>7</v>
+      <c r="F6" s="120" t="s">
+        <v>56</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>28</v>
@@ -2118,19 +2130,19 @@
       <c r="H6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="75" t="s">
+      <c r="I6" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="76" t="s">
-        <v>55</v>
+      <c r="J6" s="77" t="s">
+        <v>57</v>
       </c>
       <c r="K6" s="74" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>43</v>
@@ -2144,8 +2156,8 @@
       <c r="E7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="125" t="s">
-        <v>58</v>
+      <c r="F7" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>28</v>
@@ -2153,19 +2165,19 @@
       <c r="H7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="75" t="s">
+      <c r="I7" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="76" t="s">
-        <v>59</v>
+      <c r="J7" s="77" t="s">
+        <v>60</v>
       </c>
       <c r="K7" s="74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>43</v>
@@ -2174,13 +2186,13 @@
         <v>28</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="125" t="s">
-        <v>62</v>
+      <c r="F8" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>28</v>
@@ -2188,19 +2200,19 @@
       <c r="H8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="75" t="s">
+      <c r="I8" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="76" t="s">
-        <v>63</v>
+      <c r="J8" s="77" t="s">
+        <v>64</v>
       </c>
       <c r="K8" s="74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>43</v>
@@ -2209,13 +2221,13 @@
         <v>28</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="124" t="s">
-        <v>66</v>
+      <c r="F9" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="G9" s="31" t="s">
         <v>28</v>
@@ -2223,22 +2235,22 @@
       <c r="H9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="76" t="s">
-        <v>67</v>
+      <c r="J9" s="77" t="s">
+        <v>68</v>
       </c>
       <c r="K9" s="74" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>28</v>
@@ -2247,10 +2259,10 @@
         <v>28</v>
       </c>
       <c r="E10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="121" t="s">
         <v>71</v>
-      </c>
-      <c r="F10" s="125" t="s">
-        <v>4</v>
       </c>
       <c r="G10" s="31" t="s">
         <v>28</v>
@@ -2258,23 +2270,55 @@
       <c r="H10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="75" t="s">
+      <c r="I10" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="76" t="s">
+      <c r="J10" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="74" t="s">
-        <v>72</v>
+      <c r="K11" s="74" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="F12" s="77" t="s">
+    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="F13" s="78" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18"/>
@@ -2297,26 +2341,30 @@
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24"/>
     </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J11">
-    <sortCondition ref="A5:A11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J12">
+    <sortCondition ref="A5:A12"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{F921CDB2-393B-4B4E-858C-D425C031C33F}"/>
-    <hyperlink ref="F9" r:id="rId2" xr:uid="{09AE4830-7C2E-491B-88B2-6D520D3F4B8D}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{BFD36991-4B0E-406C-95D4-27C4CED99A1B}"/>
+    <hyperlink ref="F10" r:id="rId3" xr:uid="{09AE4830-7C2E-491B-88B2-6D520D3F4B8D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8F7217-4558-4FC0-BDBF-3C3F69A96747}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2372,7 +2420,7 @@
     </row>
     <row r="2" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>27</v>
@@ -2395,22 +2443,22 @@
       <c r="H2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="85" t="s">
+      <c r="J2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="81" t="s">
-        <v>74</v>
+      <c r="K2" s="82" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>28</v>
@@ -2422,28 +2470,28 @@
         <v>28</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G3" s="58"/>
       <c r="H3" s="59"/>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="81" t="s">
-        <v>79</v>
+      <c r="J3" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="82" t="s">
+        <v>84</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>28</v>
@@ -2454,33 +2502,29 @@
       <c r="E4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="120">
+      <c r="F4" s="122">
         <v>4326</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="46"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="81">
+      <c r="J4" s="82">
         <v>4326</v>
       </c>
-      <c r="K4" s="81" t="s">
-        <v>82</v>
+      <c r="K4" s="82" t="s">
+        <v>87</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>28</v>
@@ -2495,29 +2539,29 @@
         <v>28</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="81" t="s">
-        <v>87</v>
+      <c r="J5" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="82" t="s">
+        <v>92</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>28</v>
@@ -2532,29 +2576,29 @@
         <v>28</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" s="81" t="s">
-        <v>92</v>
+      <c r="J6" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="82" t="s">
+        <v>97</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>28</v>
@@ -2569,29 +2613,29 @@
         <v>28</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H7" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="80">
+      <c r="J7" s="81">
         <v>48001</v>
       </c>
-      <c r="K7" s="81" t="s">
-        <v>95</v>
+      <c r="K7" s="82" t="s">
+        <v>100</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>28</v>
@@ -2611,22 +2655,22 @@
       <c r="H8" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="83" t="s">
+      <c r="I8" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="81" t="s">
-        <v>98</v>
+      <c r="J8" s="85"/>
+      <c r="K8" s="82" t="s">
+        <v>103</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>28</v>
@@ -2635,10 +2679,10 @@
         <v>28</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G9" s="45" t="s">
         <v>28</v>
@@ -2646,73 +2690,53 @@
       <c r="H9" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="83" t="s">
+      <c r="I9" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" s="81" t="s">
-        <v>103</v>
+      <c r="J9" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="82" t="s">
+        <v>108</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="121">
-        <v>44936</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="K10" s="81" t="s">
-        <v>106</v>
-      </c>
+      <c r="A10" s="27"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="82"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="63" t="s">
-        <v>4</v>
+      <c r="F11" s="123">
+        <v>44936</v>
       </c>
       <c r="G11" s="46" t="s">
         <v>28</v>
@@ -2720,23 +2744,54 @@
       <c r="H11" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="83" t="s">
+      <c r="I11" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" s="81" t="s">
-        <v>109</v>
+      <c r="J11" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="82" t="s">
+        <v>112</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="K12" s="37"/>
+    <row r="12" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F13" s="43"/>
@@ -2745,14 +2800,16 @@
       <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
       <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K15" s="37"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D19" s="17"/>
-      <c r="E19" s="1"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K16" s="37"/>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" s="17"/>
@@ -2786,9 +2843,13 @@
       <c r="D27" s="17"/>
       <c r="E27" s="1"/>
     </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D28" s="17"/>
+      <c r="E28" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K11">
-    <sortCondition ref="A4:A11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K12">
+    <sortCondition ref="A4:A12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2796,11 +2857,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840F4EBE-1122-49FE-9814-7C21AEF7536A}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2820,19 +2881,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="111" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -2856,7 +2917,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>27</v>
@@ -2874,17 +2935,17 @@
       <c r="G2" s="32"/>
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
-      <c r="J2" s="113"/>
+      <c r="J2" s="114"/>
       <c r="K2" s="38" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>28</v>
@@ -2896,26 +2957,26 @@
         <v>28</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
-      <c r="I3" s="108" t="s">
+      <c r="I3" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="111" t="s">
-        <v>114</v>
+      <c r="J3" s="112" t="s">
+        <v>120</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>28</v>
@@ -2938,19 +2999,19 @@
       <c r="I4" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="111" t="s">
-        <v>117</v>
+      <c r="J4" s="112" t="s">
+        <v>123</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>28</v>
@@ -2961,8 +3022,8 @@
       <c r="E5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="122" t="s">
-        <v>121</v>
+      <c r="F5" s="124" t="s">
+        <v>127</v>
       </c>
       <c r="G5" s="45" t="s">
         <v>28</v>
@@ -2973,19 +3034,19 @@
       <c r="I5" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="111" t="s">
-        <v>122</v>
+      <c r="J5" s="112" t="s">
+        <v>128</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>28</v>
@@ -3000,27 +3061,27 @@
         <v>28</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="111" t="s">
-        <v>125</v>
+      <c r="J6" s="112" t="s">
+        <v>131</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>28</v>
@@ -3035,27 +3096,27 @@
         <v>28</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="111" t="s">
-        <v>128</v>
+      <c r="J7" s="112" t="s">
+        <v>134</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>28</v>
@@ -3067,7 +3128,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>28</v>
@@ -3078,19 +3139,19 @@
       <c r="I8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="111" t="s">
-        <v>131</v>
+      <c r="J8" s="112" t="s">
+        <v>137</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>28</v>
@@ -3113,17 +3174,17 @@
       <c r="I9" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="111"/>
+      <c r="J9" s="112"/>
       <c r="K9" s="48" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>28</v>
@@ -3146,16 +3207,16 @@
       <c r="I10" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="111" t="s">
-        <v>117</v>
+      <c r="J10" s="112" t="s">
+        <v>123</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>31</v>
@@ -3169,28 +3230,28 @@
       <c r="E11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="63" t="s">
-        <v>172</v>
+      <c r="F11" s="65" t="s">
+        <v>28</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="I11" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="112">
+      <c r="J11" s="113">
         <v>39842</v>
       </c>
       <c r="K11" s="48" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>31</v>
@@ -3216,17 +3277,17 @@
       <c r="I12" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="111"/>
+      <c r="J12" s="112"/>
       <c r="K12" s="48" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>28</v>
@@ -3235,10 +3296,10 @@
         <v>35</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>28</v>
@@ -3249,53 +3310,64 @@
       <c r="I13" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="111" t="s">
-        <v>143</v>
+      <c r="J13" s="112" t="s">
+        <v>151</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="45"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D15" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="G14" s="45" t="s">
+      <c r="E15" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H15" s="25">
+        <f>-RegulatoryReportingUnits_fact!F3</f>
+        <v>-45140</v>
+      </c>
+      <c r="I15" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="111" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>148</v>
+      <c r="J15" s="112" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J15"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J16"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18"/>
@@ -3318,6 +3390,9 @@
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24"/>
     </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L12">
     <sortCondition ref="A4:A12"/>
@@ -3332,8 +3407,8 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3353,19 +3428,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="111" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -3388,19 +3463,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="115" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="116" t="s">
+      <c r="A2" s="116" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="117" t="s">
+      <c r="C2" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="118" t="s">
+      <c r="E2" s="119" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="32"/>
@@ -3409,12 +3484,12 @@
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
       <c r="K2" s="48" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>27</v>
@@ -3426,7 +3501,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F3" s="52">
         <v>45140</v>
@@ -3437,14 +3512,14 @@
       <c r="H3" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="114" t="s">
+      <c r="I3" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="88" t="s">
+      <c r="J3" s="89" t="s">
         <v>32</v>
       </c>
       <c r="K3" s="48" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3461,7 +3536,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F4" s="68" t="s">
         <v>44</v>
@@ -3475,8 +3550,8 @@
       <c r="I4" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="88" t="s">
-        <v>153</v>
+      <c r="J4" s="89" t="s">
+        <v>162</v>
       </c>
       <c r="K4" s="48" t="s">
         <v>46</v>
@@ -3484,7 +3559,7 @@
     </row>
     <row r="5" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>27</v>
@@ -3496,10 +3571,10 @@
         <v>28</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G5" s="46" t="s">
         <v>28</v>
@@ -3510,16 +3585,16 @@
       <c r="I5" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="88" t="s">
-        <v>154</v>
+      <c r="J5" s="89" t="s">
+        <v>163</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>27</v>
@@ -3531,10 +3606,10 @@
         <v>28</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" s="46" t="s">
         <v>28</v>
@@ -3545,11 +3620,11 @@
       <c r="I6" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="88" t="s">
-        <v>154</v>
+      <c r="J6" s="89" t="s">
+        <v>163</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3655,117 +3730,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="95" t="s">
+      <c r="I1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="95" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="96" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="97" t="s">
+      <c r="A2" s="97" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="101" t="s">
-        <v>156</v>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="97" t="s">
+      <c r="A3" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="102" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="104" t="s">
+      <c r="D3" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="105" t="s">
         <v>28</v>
       </c>
       <c r="I3" s="65">
         <v>10</v>
       </c>
-      <c r="J3" s="101" t="s">
-        <v>111</v>
+      <c r="J3" s="102" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="97" t="s">
+      <c r="A4" s="97" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="102" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="104" t="s">
+      <c r="D4" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="107"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="105" t="s">
         <v>28</v>
       </c>
       <c r="I4" s="65">
         <v>10755</v>
       </c>
-      <c r="J4" s="101" t="s">
-        <v>158</v>
+      <c r="J4" s="102" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5"/>
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="E7" s="77" t="s">
-        <v>159</v>
+      <c r="E7" s="78" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3817,15 +3892,15 @@
   <sheetData>
     <row r="1" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B2" s="35">
         <v>44896</v>
@@ -12024,7 +12099,7 @@
     </row>
     <row r="3" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B3" s="35">
         <v>29384</v>
@@ -20223,7 +20298,7 @@
     </row>
     <row r="4" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B4" s="35">
         <v>34516</v>
@@ -28422,7 +28497,7 @@
     </row>
     <row r="5" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B5" s="35">
         <v>29384</v>
@@ -28430,7 +28505,7 @@
     </row>
     <row r="6" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B6" s="35">
         <v>29384</v>
@@ -28438,7 +28513,7 @@
     </row>
     <row r="7" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B7" s="35">
         <v>29384</v>
@@ -28446,7 +28521,7 @@
     </row>
     <row r="8" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B8" s="35">
         <v>27379</v>
@@ -28454,7 +28529,7 @@
     </row>
     <row r="9" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B9">
         <v>1981</v>
@@ -28462,10 +28537,10 @@
     </row>
     <row r="12" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="119" t="s">
-        <v>171</v>
+        <v>178</v>
+      </c>
+      <c r="B12" s="120" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.3">

--- a/Arizona/Regulatory/AZre_Regulatory Schema Mapping to WaDE.xlsx
+++ b/Arizona/Regulatory/AZre_Regulatory Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Arizona\Regulatory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0DA5AD-9E7C-4089-91C2-56742BDD65DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65379578-05C3-430A-B8B2-06F647BF2110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="645" firstSheet="1" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="645" firstSheet="1" activeTab="4" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -1909,7 +1909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F7812-755D-4EFC-B094-8BF895453DC0}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
@@ -2859,9 +2859,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840F4EBE-1122-49FE-9814-7C21AEF7536A}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3408,7 +3408,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
